--- a/doc/Wiring List.xlsx
+++ b/doc/Wiring List.xlsx
@@ -317,9 +317,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -394,6 +391,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -697,440 +697,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I26"/>
+  <dimension ref="B3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="7" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17" t="s">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="5">
+      <c r="C7" s="5">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="5">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="17" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="2:10" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="J16" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="5">
+      <c r="C17" s="5">
         <v>22</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="5">
+      <c r="C18" s="5">
         <v>21</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="J18" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="J19" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5">
+      <c r="C21" s="5">
         <v>17</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
         <v>11</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="J21" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5">
+      <c r="C22" s="5">
         <v>16</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
         <v>10</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="J22" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5">
+      <c r="C23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
         <v>6</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="J23" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="J24" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="25"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/Wiring List.xlsx
+++ b/doc/Wiring List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
   <si>
     <t>SCL</t>
   </si>
@@ -51,9 +51,6 @@
     <t>RX2</t>
   </si>
   <si>
-    <t>Homewatch IoT Project Wire List</t>
-  </si>
-  <si>
     <t>ESP32 Pin</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Botletics Connector/Pin</t>
   </si>
   <si>
-    <t>AmbientAP Sensor</t>
-  </si>
-  <si>
     <t>ESP Descr</t>
   </si>
   <si>
@@ -130,13 +124,133 @@
   </si>
   <si>
     <t>Botletics Description</t>
+  </si>
+  <si>
+    <t>GPIO22</t>
+  </si>
+  <si>
+    <t>GPIO21</t>
+  </si>
+  <si>
+    <t>GPIO18</t>
+  </si>
+  <si>
+    <t>Door Reed Switch NO terminal</t>
+  </si>
+  <si>
+    <t>Door Reed Switch C terminal</t>
+  </si>
+  <si>
+    <t>Door/window connection to ESP32</t>
+  </si>
+  <si>
+    <t>PhotoResister connection to ESP32</t>
+  </si>
+  <si>
+    <t>10k - 100K ohm pullup resistor A</t>
+  </si>
+  <si>
+    <t>10k - 100K ohm pullup resistor B</t>
+  </si>
+  <si>
+    <t>10k ohm pullup resistor A</t>
+  </si>
+  <si>
+    <t>10k ohm pullup resistor B</t>
+  </si>
+  <si>
+    <t>Photoresistor GL5516 A</t>
+  </si>
+  <si>
+    <t>Photoresistor GL5516 B</t>
+  </si>
+  <si>
+    <t>GPIO34</t>
+  </si>
+  <si>
+    <t>GPIO17</t>
+  </si>
+  <si>
+    <t>GPIO16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IoT Project Wire List</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Connect one end of pullup resistor to 3V3, the other end to GPIO18</t>
+  </si>
+  <si>
+    <t>Photoresistor dark resistance is 20K ohm, light resistance is 2K ohm</t>
+  </si>
+  <si>
+    <t>Connect one end of pullup resistor to 3V3, the other end to GPIO34</t>
+  </si>
+  <si>
+    <t>Connect one end of photresistor to Gnd, the other end to GPIO34</t>
+  </si>
+  <si>
+    <t>Flood Sensor connection to ESP32</t>
+  </si>
+  <si>
+    <t>Connect the common terminal to ground</t>
+  </si>
+  <si>
+    <t>GPIO35</t>
+  </si>
+  <si>
+    <t>The NO terminal will be open when the door is shut, resulting in a logical "1" at GPIO35</t>
+  </si>
+  <si>
+    <t>Uses ESP32 internal pullup resistor</t>
+  </si>
+  <si>
+    <t>Hiletgo LM393 FC37 moisture monitor</t>
+  </si>
+  <si>
+    <t>GPIO36</t>
+  </si>
+  <si>
+    <t>Comparator Vcc</t>
+  </si>
+  <si>
+    <t>Comparator Gnd</t>
+  </si>
+  <si>
+    <t>Comparator D0</t>
+  </si>
+  <si>
+    <t>Comparator A0</t>
+  </si>
+  <si>
+    <t>Uses ESP32 ADC 0</t>
+  </si>
+  <si>
+    <t>DHTxx Temp/Hum Sensor Connection</t>
+  </si>
+  <si>
+    <t>DHT11, DHT21, DHT22, etc</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>GPIO5</t>
+  </si>
+  <si>
+    <t>AmbientAP Sensor using ESP32, BME280 Temp/Hum sensor, and SSD1306 OLED Display</t>
+  </si>
+  <si>
+    <t>Temp/Hum sensor alternative to BME280</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,21 +259,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <u/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,103 +417,105 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,440 +817,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J26"/>
+  <dimension ref="B2:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E3" s="33" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="G5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
+        <v>11</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14">
+        <v>10</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14">
+        <v>6</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="31" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="5">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="C23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="25" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="36"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="2:10" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5">
-        <v>21</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="C46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="5">
-        <v>17</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5">
-        <v>11</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="5">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5">
-        <v>10</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5">
-        <v>18</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5">
-        <v>6</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="24"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D51" s="35"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/Wiring List.xlsx
+++ b/doc/Wiring List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="103">
   <si>
     <t>SCL</t>
   </si>
@@ -60,9 +60,6 @@
     <t>SSD1306 Pin</t>
   </si>
   <si>
-    <t>Botletics Connector/Pin</t>
-  </si>
-  <si>
     <t>ESP Descr</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>5V - VBAT</t>
   </si>
   <si>
-    <t>AmbientHUB</t>
-  </si>
-  <si>
     <t>Power ON / OFF</t>
   </si>
   <si>
@@ -174,15 +168,9 @@
     <t>GPIO16</t>
   </si>
   <si>
-    <t xml:space="preserve"> IoT Project Wire List</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Connect one end of pullup resistor to 3V3, the other end to GPIO18</t>
-  </si>
-  <si>
     <t>Photoresistor dark resistance is 20K ohm, light resistance is 2K ohm</t>
   </si>
   <si>
@@ -244,6 +232,99 @@
   </si>
   <si>
     <t>Temp/Hum sensor alternative to BME280</t>
+  </si>
+  <si>
+    <t>BME280 Temp /Hum Pin</t>
+  </si>
+  <si>
+    <t>BME 280 Descr</t>
+  </si>
+  <si>
+    <t>SSD1306 OLED Display Pin</t>
+  </si>
+  <si>
+    <t>Botletics SIM 7000 Connector/Pin</t>
+  </si>
+  <si>
+    <t>Connect one end of pullup resistor to 3V3, the other end to GPIO35</t>
+  </si>
+  <si>
+    <t>AmbientHUB Using ESP32 Microcontroller, Botletics Cellular modem, BME280 Temp/Hum sensor, and SSD1306 OLED display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellular HUB Option 1 </t>
+  </si>
+  <si>
+    <t>Cellular HUB Option 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Botletics SIM7000 LTE_CAT-M1/NB-IoT  + GPS Arduino Shield Kit Adapted to ESP32</t>
+  </si>
+  <si>
+    <t>LILLYGO ESP32-WROVER-B TTGO T-SIM7000G Chip w/ Battery Holder Solar Charge Development Board</t>
+  </si>
+  <si>
+    <t>LILLYGO Description</t>
+  </si>
+  <si>
+    <t>AmbientHUB Using LILLYGO Cellular modem Board, BME280 Temp/Hum sensor, and SSD1306 OLED display</t>
+  </si>
+  <si>
+    <t>Battery Holder</t>
+  </si>
+  <si>
+    <t>18650 Battery Power (optional)</t>
+  </si>
+  <si>
+    <t>On-Board ESP32 Pin</t>
+  </si>
+  <si>
+    <t>Cellular HUB Option 3</t>
+  </si>
+  <si>
+    <t>And-Global BK-SIM7000 Development Board w External ESP32</t>
+  </si>
+  <si>
+    <t>SIM 7000 Module Connector/Pin</t>
+  </si>
+  <si>
+    <t>AmbientHUB Using ESP32 Microcontroller, And-Global Cellular modem, BME280 Temp/Hum sensor, and SSD1306 OLED display</t>
+  </si>
+  <si>
+    <t>And-Global SIM7000 Module  Description</t>
+  </si>
+  <si>
+    <t>Data ESP32 to SIM7000 Module</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Rxd</t>
+  </si>
+  <si>
+    <t>Txd</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Module Power ON / OFF</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cellular IoT Monitor Wiring Lists</t>
+  </si>
+  <si>
+    <t>Sensor Platform Wiring Lists</t>
   </si>
 </sst>
 </file>
@@ -417,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -489,9 +570,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -516,6 +594,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,16 +901,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J51"/>
+  <dimension ref="B2:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
@@ -840,656 +924,1230 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="2:10" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E4" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="D8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>27</v>
+      <c r="I8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>1</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="14" t="s">
-        <v>24</v>
+      <c r="I13" s="14">
+        <v>11</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
+      <c r="I14" s="14">
+        <v>10</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14">
+        <v>6</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E20" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="2:10" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
+      <c r="H24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="18"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="18"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+    </row>
+    <row r="34" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="18"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="18"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="18"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="18"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="18"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="18"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="G53" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" s="30" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C58" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+    </row>
+    <row r="61" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="34"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="34"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="35"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="34"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="34"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="D79" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D81" s="34"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D82" s="34"/>
+    </row>
+    <row r="83" spans="2:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="23"/>
+      <c r="D84" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" s="31" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="25" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D36" s="35"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="35"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="35"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+      <c r="D85" s="34"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="34"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="35" t="s">
+      <c r="C87" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D43" s="35"/>
-    </row>
-    <row r="44" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="35"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="35"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="35"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D49" s="35"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D50" s="35"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D51" s="35"/>
+      <c r="D87" s="34"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D88" s="34"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D89" s="34"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D90" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>

--- a/doc/Wiring List.xlsx
+++ b/doc/Wiring List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="126">
   <si>
     <t>SCL</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>USB C Connector</t>
+  </si>
+  <si>
+    <t>The NO terminal will be open when the door is shut, resulting in a logical "1" at GPIO14</t>
   </si>
 </sst>
 </file>
@@ -988,7 +991,7 @@
   <dimension ref="B1:J133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+      <selection activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2410,7 +2413,7 @@
         <v>113</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
